--- a/thucduong-crawl/btd1.xlsx
+++ b/thucduong-crawl/btd1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>image</t>
   </si>
@@ -29,7 +29,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2018/08/mi-tiem-chay-thumb-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/best/mi-tiem-chay-duong-sinh-dac-biet/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/best/mi-tiem-chay-duong-sinh-dac-biet/</t>
   </si>
   <si>
     <t>Mì Tiềm Chay Dưỡng Sinh Đặc Biệt</t>
@@ -38,7 +38,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2018/07/an-choi-thuc-duong-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/moi-dat-hang-vai-mon-an-choi-thuc-duong/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/moi-dat-hang-vai-mon-an-choi-thuc-duong/</t>
   </si>
   <si>
     <t>Mời Đặt Hàng Vài Món Ăn Chơi Thực Dưỡng</t>
@@ -47,7 +47,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2018/05/family-garden-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/event/nhan-tim-dong-doi/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/event/nhan-tim-dong-doi/</t>
   </si>
   <si>
     <t>Nhắn Tìm Đồng Đội</t>
@@ -56,7 +56,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2017/10/tra-sua-thuc-duong-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/cach-lam-tra-sua-thuc-duong-khuyen-mai-ly-ca-phe-sua/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/cach-lam-tra-sua-thuc-duong-khuyen-mai-ly-ca-phe-sua/</t>
   </si>
   <si>
     <t>Cách Làm Trà Sữa Thực Dưỡng (Khuyến Mại Ly Cà Phê Sữa)</t>
@@ -65,7 +65,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2017/05/sach-nau-an-thuc-duong-cookbox15-2017-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/sach-nau-thuc-duong-cookbox-15-phien-ban-2017/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/sach-nau-thuc-duong-cookbox-15-phien-ban-2017/</t>
   </si>
   <si>
     <t>Sách Nấu Ăn Thực Dưỡng COOKBOX 15 - phiên bản 2017</t>
@@ -74,7 +74,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2017/03/superfood-sunfood-nhk-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/thu-tiep-3-mon-superfood/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/thu-tiep-3-mon-superfood/</t>
   </si>
   <si>
     <t>Thử (Tiếp) 3 Món Superfood</t>
@@ -83,7 +83,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2017/03/san-day-mo-muoi-thuc-duong-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-bai-thuoc/san-day-mo-muoi-duoc-trong-nha-bep/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-bai-thuoc/san-day-mo-muoi-duoc-trong-nha-bep/</t>
   </si>
   <si>
     <t>Sắn Dây Mơ Muối: "Thần Dược" Trong Nhà Bếp</t>
@@ -92,7 +92,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2017/02/miso-dau-hanh-thumb-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/gia-vi-miso-dau-hanh-tuyet-dinh-ngon/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/gia-vi-miso-dau-hanh-tuyet-dinh-ngon/</t>
   </si>
   <si>
     <t>Gia Vị Miso Dầu Hành: Tuyệt Đỉnh Ngon</t>
@@ -101,7 +101,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2017/01/sunfood-superfood-1-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/thu-3-mon-superfood/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/thu-3-mon-superfood/</t>
   </si>
   <si>
     <t>Thử 3 Món Superfood</t>
@@ -110,7 +110,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2016/11/ca-kho-lang-ninh-kieu-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-thuan-viet/ve-can-tho-nho-ca-kho-lang-ninh-kieu/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-thuan-viet/ve-can-tho-nho-ca-kho-lang-ninh-kieu/</t>
   </si>
   <si>
     <t>Về Cần Thơ Nhớ Cá Kho Làng Ninh Kiều</t>
@@ -119,7 +119,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2016/10/cach-lam-sua-gao-lut-8-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/cach-lam-sua-gao-lut-ngon-de-dang/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/cach-lam-sua-gao-lut-ngon-de-dang/</t>
   </si>
   <si>
     <t>Cách Làm Sữa Gạo Lứt Ngon Dễ Dàng</t>
@@ -128,7 +128,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2016/05/dau-thucduong-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/dau-an/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/dau-an/</t>
   </si>
   <si>
     <t>Quan Điểm Thực Dưỡng Về Dầu Ăn</t>
@@ -137,7 +137,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2016/04/yudofu-dau-phu-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/yudofu-dau-phu-luoc-kieu-nhat/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/yudofu-dau-phu-luoc-kieu-nhat/</t>
   </si>
   <si>
     <t>Yudofu: Đậu Phụ Luộc Kiểu Nhật</t>
@@ -146,7 +146,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2016/04/thuc-uong-thuc-duong-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cam-nang-su-dung-cac-loai-thuc-uong/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cam-nang-su-dung-cac-loai-thuc-uong/</t>
   </si>
   <si>
     <t>Cẩm Nang Thức Uống Thực Dưỡng</t>
@@ -155,7 +155,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2015/08/chup-anh-mon-an-new-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/lop-chup-anh-mon-an-tu-nhien-lua-tinh/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/lop-chup-anh-mon-an-tu-nhien-lua-tinh/</t>
   </si>
   <si>
     <t>Lớp Chụp Ảnh Món Ăn "Lừa Tình Tự Nhiên"</t>
@@ -164,7 +164,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2015/09/cookcon-2015-ket-qua-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cookcon-2015-cong-bo-ket-qua/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cookcon-2015-cong-bo-ket-qua/</t>
   </si>
   <si>
     <t>COOKCON 2015: Công Bố Kết Quả</t>
@@ -173,7 +173,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2015/08/veggie-burger-macro-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/veggie-burger-phong-cach-thuc-duong/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/veggie-burger-phong-cach-thuc-duong/</t>
   </si>
   <si>
     <t>Veggie Burger Phong Cách Thực Dưỡng</t>
@@ -182,7 +182,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2015/06/cach-nau-dau-thumb-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cam-nang-nau-cac-loai-dau-2/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cam-nang-nau-cac-loai-dau-2/</t>
   </si>
   <si>
     <t>Cẩm Nang Nấu Các Loại Đậu</t>
@@ -191,7 +191,7 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2015/05/dua-muoi-cam-Nhat-thumb-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/tsukemono-dua-muoi-kieu-nhat/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/tsukemono-dua-muoi-kieu-nhat/</t>
   </si>
   <si>
     <t>Tsukemono: Dưa Muối Kiểu Nhật</t>
@@ -200,10 +200,550 @@
     <t>http://www.bepthucduong.com/wp-content/uploads/2015/05/Tra-binh-minh-thumb-150x150.jpg</t>
   </si>
   <si>
-    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cach-lam-tra-binh-minh/</t>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/0/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cach-lam-tra-binh-minh/</t>
   </si>
   <si>
     <t>Cách Nấu Trà Bình Minh</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2015/04/goi-bi-cuon-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/goi-bi-cuon-rau-thom-summer-rolls/</t>
+  </si>
+  <si>
+    <t>Gỏi Bì Cuốn Rau Thơm (Summer Rolls)</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2015/01/lam-mi-soba-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/lam-mi-soba-nam-moi-2015/</t>
+  </si>
+  <si>
+    <t>Làm Mì Soba Năm Mới 2015</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2015/01/lima-3-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/qua-nam-moi-lima-cooking-dvd-cao-cap/</t>
+  </si>
+  <si>
+    <t>Quà Năm Mới: LIMA Cooking DVD (Cao Cấp)</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2015/01/CAN-THO-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/ve-can-tho-12-2014/</t>
+  </si>
+  <si>
+    <t>Về Cần Thơ 12/2014</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/12/com-hoang-gia-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/bua-com-hoang-gia/</t>
+  </si>
+  <si>
+    <t>Bữa Cơm "Hoàng Gia"</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/12/lima-so-cap-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mon-an-noi-bat/qua-giang-sinh-2014-lima-cooking-dvd-so-cap/</t>
+  </si>
+  <si>
+    <t>Quà Giáng Sinh 2014: LIMA Cooking DVD (Sơ Cấp)</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/11/khai-minh-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/quan-luc-khai-minh/</t>
+  </si>
+  <si>
+    <t>Quán Lức Khai Minh</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/10/com-gao-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/com-gao-rang-cong-dinh/</t>
+  </si>
+  <si>
+    <t>Cốm Gạo Rang Công Định</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/10/salad-hoa-cam-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/salad-hoa-cam/</t>
+  </si>
+  <si>
+    <t>Salad Hoa Cam</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/10/potluck-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/vegan-potluck-10-2014/</t>
+  </si>
+  <si>
+    <t>Vegan Potluck 10/2014</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/10/kudzumochi-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/banh-mochi-san-day-kuzumochi/</t>
+  </si>
+  <si>
+    <t>Bánh Mochi Sắn Dây - Kuzumochi</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/08/cookcon-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cookcon-2014-thi-tai-online-nau-an-chay/</t>
+  </si>
+  <si>
+    <t>COOKCON 2014: Thi Tài Online Nấu Ăn Chay</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/07/xao-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/3-mon-xao-vui/</t>
+  </si>
+  <si>
+    <t>3 Món Xào Vui</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/06/tofu-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/khong-phai-dau-phu-nao-cung-nhu-nhau/</t>
+  </si>
+  <si>
+    <t>Không Phải Đậu Phụ Nào Cũng Như Nhau</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/05/com-nam-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/com-nam-muoi-vung-hay-tri-tue-nguoi-xua/</t>
+  </si>
+  <si>
+    <t>Cơm Nắm Muối Vừng Hay Trí Tuệ Người Xưa?</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/03/ca-chua-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cach-lam-ca-chua-kho-phoi-nang/</t>
+  </si>
+  <si>
+    <t>Cách Làm Cà Chua Khô Phơi Nắng</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/02/banh-cuon-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/com-chao-thuc-duong/banh-cuon-gao-lut/</t>
+  </si>
+  <si>
+    <t>Bánh Cuốn Gạo Lứt</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/01/cai-ro-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cai-ro-cuon/</t>
+  </si>
+  <si>
+    <t>Cải Rổ Cuốn</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/01/tet-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/14-mon-an-chay-mung-tet-2014/</t>
+  </si>
+  <si>
+    <t>14 Món Ăn Chay Mừng Tết 2014</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2014/01/curry-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/2/http://www.bepthucduong.com/mon-an-chay-thuc-duong/video-cookcam-3-com-ca-ri/</t>
+  </si>
+  <si>
+    <t>[Video] COOKCAM #3 Cơm Cà Ri</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/12/2013-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/best-of-2013/</t>
+  </si>
+  <si>
+    <t>Best of 2013</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/12/mushroom-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/mien-xao-rau-nam-kieu-mach-ham-nam-cu-cai/</t>
+  </si>
+  <si>
+    <t>Miến Xào Rau Nấm + Kiều Mạch Hầm Nấm Củ Cải</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/12/offline-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/offline-gap-nhau-cuoi-nam/</t>
+  </si>
+  <si>
+    <t>Offline Gặp Nhau Cuối Năm</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/12/tempura-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/bi-quyet-chien-bot-tempura/</t>
+  </si>
+  <si>
+    <t>Bí Quyết Chiên Bột Tempura</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/12/corn-curried-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/bap-xao-ca-ri-cu-cai/</t>
+  </si>
+  <si>
+    <t>Bắp Xào Cà Ri Củ Cải</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/11/pho-chay-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/video-cookcam-cach-nau-pho-chay/</t>
+  </si>
+  <si>
+    <t>[Video] COOKCAM #1 Cách nấu Phở Chay</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/10/bi-do-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/banh-bi-do-nuong-halloween/</t>
+  </si>
+  <si>
+    <t>Bánh Bí Đỏ Nướng Halloween</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/10/millet-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/com-ga-sot-dua-que/</t>
+  </si>
+  <si>
+    <t>Cơm "Gà" Sốt Dừa Quế</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/10/nature-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/nature-symphony-nghe-thuat-tu-thien-nhien/</t>
+  </si>
+  <si>
+    <t>Nature Symphony - Nghệ Thuật Từ Thiên Nhiên</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/09/pasta-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/gia-dinh-mi-soi-pasta/</t>
+  </si>
+  <si>
+    <t>Gia Đình Mì Sợi Pasta</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/09/egg-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/bo-trung-thay-bang-gi/</t>
+  </si>
+  <si>
+    <t>Bỏ Trứng, Thay Bằng Gì?</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/09/DSC_0077-e1379719259891-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/banh-tao-nuong-offline-trung-thu/</t>
+  </si>
+  <si>
+    <t>Bánh Táo Nướng &amp; Offline Trung Thu</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/09/an-le-thumb-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/an-le-quoc-khanh/</t>
+  </si>
+  <si>
+    <t>Ăn Lễ Quốc Khánh</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/07/hat-mam-song-e1379837413365-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/nhung-hat-mam-song/</t>
+  </si>
+  <si>
+    <t>Những Hạt Mầm Sống</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/07/Weekend-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/10-mon-an-cho-cuoi-tuan/</t>
+  </si>
+  <si>
+    <t>10 Món Ăn Cho Cuối Tuần</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/05/rau-cu-be-baby-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/the-gioi-ti-hon/</t>
+  </si>
+  <si>
+    <t>Thế Giới Tí Hon</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/05/cap-doi-hoan-hao-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/ban-than-trong-nha-bep-p-2/</t>
+  </si>
+  <si>
+    <t>Bạn Thân Trong Nhà Bếp (P.2)</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/05/Banh-dau-ga-socca-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/banh-dau-ga-socca/</t>
+  </si>
+  <si>
+    <t>Bánh Đậu Gà Socca</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/05/bff-in-kitchen-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/ban-than-trong-nha-bep-p-1/</t>
+  </si>
+  <si>
+    <t>Bạn Thân Trong Nhà Bếp (P.1)</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/05/DSC_2843-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/3/http://www.bepthucduong.com/mon-an-chay-thuc-duong/lasagna-huong-vi-nuoc-y/</t>
+  </si>
+  <si>
+    <t>Lasagna - Hương Vị Nước Ý</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/03/nem-nuong-chay-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cha-gio-nuong/</t>
+  </si>
+  <si>
+    <t>Chả Giò Nướng</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/03/8541174448_3b5c611dc8_o-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/banh-mi-cu-mai/</t>
+  </si>
+  <si>
+    <t>Bánh Mì Củ Mài</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/03/bap-xao-gac-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/noi-bat-bap-xao-gac/</t>
+  </si>
+  <si>
+    <t>Bắp Xào Gấc</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/02/mon-an-chay-thuc-duong-tet-9-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/vui-xuan-13/</t>
+  </si>
+  <si>
+    <t>Vui Xuân '13</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/01/mon-an-chay-thuc-duong-gao-nep-banh-tet-2-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/gao-nep-huong-vi-ngay-tet/</t>
+  </si>
+  <si>
+    <t>Gạo Nếp - Hương Vị Ngày Tết</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/01/trai-sa-ke-an-chay-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/sa-ke-huong-vi-nhiet-doi/</t>
+  </si>
+  <si>
+    <t>Sa Kê - Hương Vị Nhiệt Đới</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/01/mon-an-thuc-duong-cach-lam-dau-dua-tai-nha-3-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cach-lam-dau-dua-ngon-bo-re/</t>
+  </si>
+  <si>
+    <t>Cách Làm Dầu Dừa Ngon Bổ Rẻ</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/01/mon-an-chay-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/an-choi-p1/</t>
+  </si>
+  <si>
+    <t>Ăn &amp; Chơi (P1)</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2013/01/ecom-header-image-01-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cach-lam-chocolate-ngon-bo-re/</t>
+  </si>
+  <si>
+    <t>Cách Làm Chocolate Ngon Bổ Rẻ</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/12/top-10-btd-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/best-of-2012/</t>
+  </si>
+  <si>
+    <t>Best of 2012</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/12/mon-an-thuc-duong-ratatouille-3-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/noi-bat-ratatouille-huong-vi-nuoc-phap/</t>
+  </si>
+  <si>
+    <t>[Nổi bật] Ratatouille - Hương Vị Nước Pháp</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/11/Steel-cut-oat-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/sua-yen-mach/</t>
+  </si>
+  <si>
+    <t>Sữa Yến Mạch</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/11/chao-barley-lua-mach-ke-thuc-duong-3-1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/chao-lua-mach-barley-va-su-ky-dieu-cua-wholegrain/</t>
+  </si>
+  <si>
+    <t>Cháo Lúa Mạch Barley và Sự Kỳ Diệu Của Wholegrain</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/11/com-ca-ri-nau-ap-suat-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/featured-com-ca-ri-nau-ap-suat/</t>
+  </si>
+  <si>
+    <t>Cơm Cà Ri Nấu Áp Suất</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/11/mon-an-chay-duong-sinh-banh-trang-nuong-taco-2-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/featured-banh-trang-nuong-da-lat-style/</t>
+  </si>
+  <si>
+    <t>Bánh Tráng Nướng - Đà Lạt Style</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/11/mon-an-chay-duong-sinh-sushi-chay-nam-dong-co-cu-cai-6-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/sushi-nigiri-all-star/</t>
+  </si>
+  <si>
+    <t>Sushi Nigiri All Star</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/09/mon-an-thuc-duong-tempeh-dau-nanh-4-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/featured-dau-nanh-len-men-tempeh/</t>
+  </si>
+  <si>
+    <t>Đậu Nành Lên Men Tempeh</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/09/natto-kinoko-8-of-8-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/huong-dan-lam-natto-ngon-bo-re/</t>
+  </si>
+  <si>
+    <t>Cách Làm Natto Ngon Bổ Rẻ</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/06/mon-an-thuc-duong-nori-oshizushi-sushi+-5-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/gia-dinh-sushi-vegan/</t>
+  </si>
+  <si>
+    <t>Gia Đình Sushi Vegan</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/wp-content/uploads/2012/06/mon-an-thuc-duong-cu-sen-chien-bot-tempura-3-188x188.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bepthucduong.com/category/mon-an-chay-thuc-duong/mon-an-noi-bat/page/4/http://www.bepthucduong.com/mon-an-chay-thuc-duong/cu-sen-chien-bot-tempura/</t>
+  </si>
+  <si>
+    <t>Củ Sen Chiên Bột Tempura</t>
   </si>
 </sst>
 </file>
@@ -777,6 +1317,666 @@
         <v>62</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>